--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.1690535</v>
+        <v>10.376193</v>
       </c>
       <c r="H2">
-        <v>10.338107</v>
+        <v>20.752386</v>
       </c>
       <c r="I2">
-        <v>0.05780468704045526</v>
+        <v>0.1115751724288325</v>
       </c>
       <c r="J2">
-        <v>0.04417925588997337</v>
+        <v>0.09203404009374722</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>10.436556792961</v>
+        <v>112.440505191849</v>
       </c>
       <c r="R2">
-        <v>41.74622717184399</v>
+        <v>449.7620207673961</v>
       </c>
       <c r="S2">
-        <v>0.0002297940549765963</v>
+        <v>0.002060639748168558</v>
       </c>
       <c r="T2">
-        <v>0.000119595787633988</v>
+        <v>0.001161742644896746</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.1690535</v>
+        <v>10.376193</v>
       </c>
       <c r="H3">
-        <v>10.338107</v>
+        <v>20.752386</v>
       </c>
       <c r="I3">
-        <v>0.05780468704045526</v>
+        <v>0.1115751724288325</v>
       </c>
       <c r="J3">
-        <v>0.04417925588997337</v>
+        <v>0.09203404009374722</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
-        <v>722.0899810226914</v>
+        <v>1449.50037883295</v>
       </c>
       <c r="R3">
-        <v>4332.539886136149</v>
+        <v>8697.002272997699</v>
       </c>
       <c r="S3">
-        <v>0.01589911194744723</v>
+        <v>0.02656425360693846</v>
       </c>
       <c r="T3">
-        <v>0.01241198439334881</v>
+        <v>0.02246449890559054</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.1690535</v>
+        <v>10.376193</v>
       </c>
       <c r="H4">
-        <v>10.338107</v>
+        <v>20.752386</v>
       </c>
       <c r="I4">
-        <v>0.05780468704045526</v>
+        <v>0.1115751724288325</v>
       </c>
       <c r="J4">
-        <v>0.04417925588997337</v>
+        <v>0.09203404009374722</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>963.2782085876712</v>
+        <v>1557.68322420984</v>
       </c>
       <c r="R4">
-        <v>5779.669251526027</v>
+        <v>9346.099345259041</v>
       </c>
       <c r="S4">
-        <v>0.02120963934879817</v>
+        <v>0.02854686539681998</v>
       </c>
       <c r="T4">
-        <v>0.01655776205966698</v>
+        <v>0.02414112724392152</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.1690535</v>
+        <v>10.376193</v>
       </c>
       <c r="H5">
-        <v>10.338107</v>
+        <v>20.752386</v>
       </c>
       <c r="I5">
-        <v>0.05780468704045526</v>
+        <v>0.1115751724288325</v>
       </c>
       <c r="J5">
-        <v>0.04417925588997337</v>
+        <v>0.09203404009374722</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>154.8820273783607</v>
+        <v>336.906924408039</v>
       </c>
       <c r="R5">
-        <v>619.5281095134429</v>
+        <v>1347.627697632156</v>
       </c>
       <c r="S5">
-        <v>0.003410221380510694</v>
+        <v>0.006174321243789214</v>
       </c>
       <c r="T5">
-        <v>0.001774841877654235</v>
+        <v>0.003480944351664087</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.1690535</v>
+        <v>10.376193</v>
       </c>
       <c r="H6">
-        <v>10.338107</v>
+        <v>20.752386</v>
       </c>
       <c r="I6">
-        <v>0.05780468704045526</v>
+        <v>0.1115751724288325</v>
       </c>
       <c r="J6">
-        <v>0.04417925588997337</v>
+        <v>0.09203404009374722</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>32.32578913177033</v>
+        <v>540.4983871150509</v>
       </c>
       <c r="R6">
-        <v>193.954734790622</v>
+        <v>3242.990322690306</v>
       </c>
       <c r="S6">
-        <v>0.000711755257243264</v>
+        <v>0.009905438066201514</v>
       </c>
       <c r="T6">
-        <v>0.0005556470810437812</v>
+        <v>0.008376696966161223</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.1690535</v>
+        <v>10.376193</v>
       </c>
       <c r="H7">
-        <v>10.338107</v>
+        <v>20.752386</v>
       </c>
       <c r="I7">
-        <v>0.05780468704045526</v>
+        <v>0.1115751724288325</v>
       </c>
       <c r="J7">
-        <v>0.04417925588997337</v>
+        <v>0.09203404009374722</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>742.3029582321642</v>
+        <v>2091.16176742856</v>
       </c>
       <c r="R7">
-        <v>4453.817749392986</v>
+        <v>12546.97060457136</v>
       </c>
       <c r="S7">
-        <v>0.0163441650514793</v>
+        <v>0.03832365436691474</v>
       </c>
       <c r="T7">
-        <v>0.01275942469062557</v>
+        <v>0.03240902998151309</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>110.159511</v>
       </c>
       <c r="I8">
-        <v>0.4106319824241575</v>
+        <v>0.394848297909804</v>
       </c>
       <c r="J8">
-        <v>0.4707598040127981</v>
+        <v>0.4885426115378534</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N8">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O8">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P8">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q8">
-        <v>74.139040015502</v>
+        <v>397.9105846279411</v>
       </c>
       <c r="R8">
-        <v>444.834240093012</v>
+        <v>2387.463507767646</v>
       </c>
       <c r="S8">
-        <v>0.001632407217744923</v>
+        <v>0.007292304187910778</v>
       </c>
       <c r="T8">
-        <v>0.001274373875548006</v>
+        <v>0.006166857231244262</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>110.159511</v>
       </c>
       <c r="I9">
-        <v>0.4106319824241575</v>
+        <v>0.394848297909804</v>
       </c>
       <c r="J9">
-        <v>0.4707598040127981</v>
+        <v>0.4885426115378534</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P9">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q9">
         <v>5129.570897744883</v>
@@ -1013,10 +1013,10 @@
         <v>46166.13807970395</v>
       </c>
       <c r="S9">
-        <v>0.1129438492279128</v>
+        <v>0.09400702767127044</v>
       </c>
       <c r="T9">
-        <v>0.1322580750335566</v>
+        <v>0.1192478886186817</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>110.159511</v>
       </c>
       <c r="I10">
-        <v>0.4106319824241575</v>
+        <v>0.394848297909804</v>
       </c>
       <c r="J10">
-        <v>0.4707598040127981</v>
+        <v>0.4885426115378534</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N10">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O10">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P10">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q10">
-        <v>6842.919850798854</v>
+        <v>5512.414243896561</v>
       </c>
       <c r="R10">
-        <v>61586.27865718968</v>
+        <v>49611.72819506904</v>
       </c>
       <c r="S10">
-        <v>0.1506686861949978</v>
+        <v>0.101023202270059</v>
       </c>
       <c r="T10">
-        <v>0.1764341355479555</v>
+        <v>0.1281479041580652</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>110.159511</v>
       </c>
       <c r="I11">
-        <v>0.4106319824241575</v>
+        <v>0.394848297909804</v>
       </c>
       <c r="J11">
-        <v>0.4707598040127981</v>
+        <v>0.4885426115378534</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N11">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O11">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P11">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q11">
-        <v>1100.248391618107</v>
+        <v>1192.264576076651</v>
       </c>
       <c r="R11">
-        <v>6601.490349708639</v>
+        <v>7153.587456459906</v>
       </c>
       <c r="S11">
-        <v>0.02422547439802426</v>
+        <v>0.02185002434491891</v>
       </c>
       <c r="T11">
-        <v>0.01891213868696777</v>
+        <v>0.01847783322831061</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>110.159511</v>
       </c>
       <c r="I12">
-        <v>0.4106319824241575</v>
+        <v>0.394848297909804</v>
       </c>
       <c r="J12">
-        <v>0.4707598040127981</v>
+        <v>0.4885426115378534</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N12">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O12">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P12">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q12">
-        <v>229.6354076844007</v>
+        <v>1912.745134330826</v>
       </c>
       <c r="R12">
-        <v>2066.718669159606</v>
+        <v>17214.70620897743</v>
       </c>
       <c r="S12">
-        <v>0.005056155257411387</v>
+        <v>0.03505390379732864</v>
       </c>
       <c r="T12">
-        <v>0.005920794855031033</v>
+        <v>0.04446586727846639</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>110.159511</v>
       </c>
       <c r="I13">
-        <v>0.4106319824241575</v>
+        <v>0.394848297909804</v>
       </c>
       <c r="J13">
-        <v>0.4707598040127981</v>
+        <v>0.4885426115378534</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N13">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O13">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P13">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q13">
-        <v>5273.159511872509</v>
+        <v>7400.317172262374</v>
       </c>
       <c r="R13">
-        <v>47458.43560685258</v>
+        <v>66602.85455036136</v>
       </c>
       <c r="S13">
-        <v>0.1161054101280663</v>
+        <v>0.1356218356383162</v>
       </c>
       <c r="T13">
-        <v>0.1359602860137392</v>
+        <v>0.1720362610230853</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.460826333333333</v>
+        <v>0.5188976666666667</v>
       </c>
       <c r="H14">
-        <v>10.382479</v>
+        <v>1.556693</v>
       </c>
       <c r="I14">
-        <v>0.03870185965374505</v>
+        <v>0.005579705064396178</v>
       </c>
       <c r="J14">
-        <v>0.04436887686626525</v>
+        <v>0.006903724033258423</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N14">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O14">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P14">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q14">
-        <v>6.987567565011333</v>
+        <v>5.622979042783001</v>
       </c>
       <c r="R14">
-        <v>41.925405390068</v>
+        <v>33.73787425669801</v>
       </c>
       <c r="S14">
-        <v>0.0001538535665584526</v>
+        <v>0.000103049466906143</v>
       </c>
       <c r="T14">
-        <v>0.0001201091025270236</v>
+        <v>8.714548019260292E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.460826333333333</v>
+        <v>0.5188976666666667</v>
       </c>
       <c r="H15">
-        <v>10.382479</v>
+        <v>1.556693</v>
       </c>
       <c r="I15">
-        <v>0.03870185965374505</v>
+        <v>0.005579705064396178</v>
       </c>
       <c r="J15">
-        <v>0.04436887686626525</v>
+        <v>0.006903724033258423</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P15">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q15">
-        <v>483.4595001501721</v>
+        <v>72.4873144137611</v>
       </c>
       <c r="R15">
-        <v>4351.135501351549</v>
+        <v>652.38582972385</v>
       </c>
       <c r="S15">
-        <v>0.01064490149005809</v>
+        <v>0.001328438013188648</v>
       </c>
       <c r="T15">
-        <v>0.01246525764458346</v>
+        <v>0.001685123252566739</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.460826333333333</v>
+        <v>0.5188976666666667</v>
       </c>
       <c r="H16">
-        <v>10.382479</v>
+        <v>1.556693</v>
       </c>
       <c r="I16">
-        <v>0.03870185965374505</v>
+        <v>0.005579705064396178</v>
       </c>
       <c r="J16">
-        <v>0.04436887686626525</v>
+        <v>0.006903724033258423</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N16">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O16">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P16">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q16">
-        <v>644.9417849140799</v>
+        <v>77.89737434994667</v>
       </c>
       <c r="R16">
-        <v>5804.476064226719</v>
+        <v>701.07636914952</v>
       </c>
       <c r="S16">
-        <v>0.01420044856932194</v>
+        <v>0.001427585420303698</v>
       </c>
       <c r="T16">
-        <v>0.01662882932740871</v>
+        <v>0.001810891711089121</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>3.460826333333333</v>
+        <v>0.5188976666666667</v>
       </c>
       <c r="H17">
-        <v>10.382479</v>
+        <v>1.556693</v>
       </c>
       <c r="I17">
-        <v>0.03870185965374505</v>
+        <v>0.005579705064396178</v>
       </c>
       <c r="J17">
-        <v>0.04436887686626525</v>
+        <v>0.006903724033258423</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N17">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O17">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P17">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q17">
-        <v>103.6978624638118</v>
+        <v>16.84820405317967</v>
       </c>
       <c r="R17">
-        <v>622.187174782871</v>
+        <v>101.089224319078</v>
       </c>
       <c r="S17">
-        <v>0.002283238886223128</v>
+        <v>0.0003087684362321185</v>
       </c>
       <c r="T17">
-        <v>0.001782459644020483</v>
+        <v>0.0002611151173472305</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>3.460826333333333</v>
+        <v>0.5188976666666667</v>
       </c>
       <c r="H18">
-        <v>10.382479</v>
+        <v>1.556693</v>
       </c>
       <c r="I18">
-        <v>0.03870185965374505</v>
+        <v>0.005579705064396178</v>
       </c>
       <c r="J18">
-        <v>0.04436887686626525</v>
+        <v>0.006903724033258423</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N18">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O18">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P18">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q18">
-        <v>21.64302270677045</v>
+        <v>27.02950416507255</v>
       </c>
       <c r="R18">
-        <v>194.787204360934</v>
+        <v>243.265537485653</v>
       </c>
       <c r="S18">
-        <v>0.0004765401126445932</v>
+        <v>0.0004953559267703621</v>
       </c>
       <c r="T18">
-        <v>0.0005580319637191177</v>
+        <v>0.0006283588561982421</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>3.460826333333333</v>
+        <v>0.5188976666666667</v>
       </c>
       <c r="H19">
-        <v>10.382479</v>
+        <v>1.556693</v>
       </c>
       <c r="I19">
-        <v>0.03870185965374505</v>
+        <v>0.005579705064396178</v>
       </c>
       <c r="J19">
-        <v>0.04436887686626525</v>
+        <v>0.006903724033258423</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N19">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O19">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P19">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q19">
-        <v>496.9926554563825</v>
+        <v>104.5758267739645</v>
       </c>
       <c r="R19">
-        <v>4472.933899107442</v>
+        <v>941.18244096568</v>
       </c>
       <c r="S19">
-        <v>0.01094287702893884</v>
+        <v>0.001916507800995208</v>
       </c>
       <c r="T19">
-        <v>0.01281418918400646</v>
+        <v>0.002431089615864487</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>29.0955195</v>
+        <v>43.1298105</v>
       </c>
       <c r="H20">
-        <v>58.191039</v>
+        <v>86.259621</v>
       </c>
       <c r="I20">
-        <v>0.3253704762345686</v>
+        <v>0.4637747238664863</v>
       </c>
       <c r="J20">
-        <v>0.248675778117253</v>
+        <v>0.3825498146374802</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N20">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O20">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P20">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q20">
-        <v>58.745192264397</v>
+        <v>467.3715765935265</v>
       </c>
       <c r="R20">
-        <v>234.980769057588</v>
+        <v>1869.486306374106</v>
       </c>
       <c r="S20">
-        <v>0.00129346260539877</v>
+        <v>0.008565280334249527</v>
       </c>
       <c r="T20">
-        <v>0.0006731796394103018</v>
+        <v>0.004828913660739101</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>29.0955195</v>
+        <v>43.1298105</v>
       </c>
       <c r="H21">
-        <v>58.191039</v>
+        <v>86.259621</v>
       </c>
       <c r="I21">
-        <v>0.3253704762345686</v>
+        <v>0.4637747238664863</v>
       </c>
       <c r="J21">
-        <v>0.248675778117253</v>
+        <v>0.3825498146374802</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P21">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q21">
-        <v>4064.493262373925</v>
+        <v>6025.010970665574</v>
       </c>
       <c r="R21">
-        <v>24386.95957424355</v>
+        <v>36150.06582399344</v>
       </c>
       <c r="S21">
-        <v>0.08949277110396205</v>
+        <v>0.1104173008483166</v>
       </c>
       <c r="T21">
-        <v>0.06986446047625082</v>
+        <v>0.09337621040545191</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>29.0955195</v>
+        <v>43.1298105</v>
       </c>
       <c r="H22">
-        <v>58.191039</v>
+        <v>86.259621</v>
       </c>
       <c r="I22">
-        <v>0.3253704762345686</v>
+        <v>0.4637747238664863</v>
       </c>
       <c r="J22">
-        <v>0.248675778117253</v>
+        <v>0.3825498146374802</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N22">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O22">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P22">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q22">
-        <v>5422.091278778147</v>
+        <v>6474.68510649324</v>
       </c>
       <c r="R22">
-        <v>32532.54767266888</v>
+        <v>38848.11063895944</v>
       </c>
       <c r="S22">
-        <v>0.1193846175631428</v>
+        <v>0.1186582492185576</v>
       </c>
       <c r="T22">
-        <v>0.09320017463224184</v>
+        <v>0.1003453042254247</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>29.0955195</v>
+        <v>43.1298105</v>
       </c>
       <c r="H23">
-        <v>58.191039</v>
+        <v>86.259621</v>
       </c>
       <c r="I23">
-        <v>0.3253704762345686</v>
+        <v>0.4637747238664863</v>
       </c>
       <c r="J23">
-        <v>0.248675778117253</v>
+        <v>0.3825498146374802</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N23">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O23">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P23">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q23">
-        <v>871.7984922745777</v>
+        <v>1400.391435072241</v>
       </c>
       <c r="R23">
-        <v>3487.193969098311</v>
+        <v>5601.565740288966</v>
       </c>
       <c r="S23">
-        <v>0.01919542188448346</v>
+        <v>0.02566425906021149</v>
       </c>
       <c r="T23">
-        <v>0.009990213191004</v>
+        <v>0.01446893578871532</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>29.0955195</v>
+        <v>43.1298105</v>
       </c>
       <c r="H24">
-        <v>58.191039</v>
+        <v>86.259621</v>
       </c>
       <c r="I24">
-        <v>0.3253704762345686</v>
+        <v>0.4637747238664863</v>
       </c>
       <c r="J24">
-        <v>0.248675778117253</v>
+        <v>0.3825498146374802</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N24">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O24">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P24">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q24">
-        <v>181.955096428449</v>
+        <v>2246.642194476123</v>
       </c>
       <c r="R24">
-        <v>1091.730578570694</v>
+        <v>13479.85316685674</v>
       </c>
       <c r="S24">
-        <v>0.004006321266813916</v>
+        <v>0.04117306479503202</v>
       </c>
       <c r="T24">
-        <v>0.00312762103964051</v>
+        <v>0.03481868087519752</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>29.0955195</v>
+        <v>43.1298105</v>
       </c>
       <c r="H25">
-        <v>58.191039</v>
+        <v>86.259621</v>
       </c>
       <c r="I25">
-        <v>0.3253704762345686</v>
+        <v>0.4637747238664863</v>
       </c>
       <c r="J25">
-        <v>0.248675778117253</v>
+        <v>0.3825498146374802</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N25">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O25">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P25">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q25">
-        <v>4178.267877504387</v>
+        <v>8692.148532129158</v>
       </c>
       <c r="R25">
-        <v>25069.60726502632</v>
+        <v>52152.89119277496</v>
       </c>
       <c r="S25">
-        <v>0.09199788181076757</v>
+        <v>0.159296569610119</v>
       </c>
       <c r="T25">
-        <v>0.0718201291387055</v>
+        <v>0.1347117696819516</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>8.473908333333334</v>
+        <v>0.6803400000000001</v>
       </c>
       <c r="H26">
-        <v>25.421725</v>
+        <v>2.04102</v>
       </c>
       <c r="I26">
-        <v>0.09476234270313497</v>
+        <v>0.007315693993956346</v>
       </c>
       <c r="J26">
-        <v>0.1086381572506005</v>
+        <v>0.009051649121799293</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N26">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O26">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P26">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q26">
-        <v>17.10921072478333</v>
+        <v>7.372431613620002</v>
       </c>
       <c r="R26">
-        <v>102.6552643487</v>
+        <v>44.23458968172</v>
       </c>
       <c r="S26">
-        <v>0.0003767137943951708</v>
+        <v>0.0001351107912380771</v>
       </c>
       <c r="T26">
-        <v>0.0002940897423860718</v>
+        <v>0.000114258667561752</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>8.473908333333334</v>
+        <v>0.6803400000000001</v>
       </c>
       <c r="H27">
-        <v>25.421725</v>
+        <v>2.04102</v>
       </c>
       <c r="I27">
-        <v>0.09476234270313497</v>
+        <v>0.007315693993956346</v>
       </c>
       <c r="J27">
-        <v>0.1086381572506005</v>
+        <v>0.009051649121799293</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P27">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q27">
-        <v>1183.761071075139</v>
+        <v>95.039971571</v>
       </c>
       <c r="R27">
-        <v>10653.84963967625</v>
+        <v>855.3597441389999</v>
       </c>
       <c r="S27">
-        <v>0.02606427215815674</v>
+        <v>0.001741749049862942</v>
       </c>
       <c r="T27">
-        <v>0.03052145368122087</v>
+        <v>0.002209408188354264</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>8.473908333333334</v>
+        <v>0.6803400000000001</v>
       </c>
       <c r="H28">
-        <v>25.421725</v>
+        <v>2.04102</v>
       </c>
       <c r="I28">
-        <v>0.09476234270313497</v>
+        <v>0.007315693993956346</v>
       </c>
       <c r="J28">
-        <v>0.1086381572506005</v>
+        <v>0.009051649121799293</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N28">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O28">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P28">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q28">
-        <v>1579.153947443081</v>
+        <v>102.1332394992</v>
       </c>
       <c r="R28">
-        <v>14212.38552698773</v>
+        <v>919.1991554928001</v>
       </c>
       <c r="S28">
-        <v>0.03477010629214333</v>
+        <v>0.00187174375072558</v>
       </c>
       <c r="T28">
-        <v>0.0407160492434725</v>
+        <v>0.002374306430469668</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>8.473908333333334</v>
+        <v>0.6803400000000001</v>
       </c>
       <c r="H29">
-        <v>25.421725</v>
+        <v>2.04102</v>
       </c>
       <c r="I29">
-        <v>0.09476234270313497</v>
+        <v>0.007315693993956346</v>
       </c>
       <c r="J29">
-        <v>0.1086381572506005</v>
+        <v>0.009051649121799293</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N29">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O29">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P29">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q29">
-        <v>253.9064651749208</v>
+        <v>22.09011117582</v>
       </c>
       <c r="R29">
-        <v>1523.438791049525</v>
+        <v>132.54066705492</v>
       </c>
       <c r="S29">
-        <v>0.005590559930327879</v>
+        <v>0.0004048341925597908</v>
       </c>
       <c r="T29">
-        <v>0.004364391095217877</v>
+        <v>0.0003423547075807782</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>8.473908333333334</v>
+        <v>0.6803400000000001</v>
       </c>
       <c r="H30">
-        <v>25.421725</v>
+        <v>2.04102</v>
       </c>
       <c r="I30">
-        <v>0.09476234270313497</v>
+        <v>0.007315693993956346</v>
       </c>
       <c r="J30">
-        <v>0.1086381572506005</v>
+        <v>0.009051649121799293</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N30">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O30">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P30">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q30">
-        <v>52.99341047742778</v>
+        <v>35.43907410838</v>
       </c>
       <c r="R30">
-        <v>476.94069429685</v>
+        <v>318.95166697542</v>
       </c>
       <c r="S30">
-        <v>0.001166818800704521</v>
+        <v>0.00064947382281339</v>
       </c>
       <c r="T30">
-        <v>0.001366353365403136</v>
+        <v>0.0008238573647326327</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>8.473908333333334</v>
+        <v>0.6803400000000001</v>
       </c>
       <c r="H31">
-        <v>25.421725</v>
+        <v>2.04102</v>
       </c>
       <c r="I31">
-        <v>0.09476234270313497</v>
+        <v>0.007315693993956346</v>
       </c>
       <c r="J31">
-        <v>0.1086381572506005</v>
+        <v>0.009051649121799293</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N31">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O31">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P31">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q31">
-        <v>1216.897295340728</v>
+        <v>137.1120406928</v>
       </c>
       <c r="R31">
-        <v>10952.07565806655</v>
+        <v>1234.0083662352</v>
       </c>
       <c r="S31">
-        <v>0.02679387172740732</v>
+        <v>0.002512782386756566</v>
       </c>
       <c r="T31">
-        <v>0.03137582012289999</v>
+        <v>0.003187463763100198</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.503595333333333</v>
+        <v>1.572250666666666</v>
       </c>
       <c r="H32">
-        <v>19.510786</v>
+        <v>4.716752</v>
       </c>
       <c r="I32">
-        <v>0.07272865194393879</v>
+        <v>0.01690640673652467</v>
       </c>
       <c r="J32">
-        <v>0.08337812786310975</v>
+        <v>0.02091816057586161</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N32">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O32">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P32">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q32">
-        <v>13.13105814338533</v>
+        <v>17.037526118512</v>
       </c>
       <c r="R32">
-        <v>78.78634886031199</v>
+        <v>102.225156711072</v>
       </c>
       <c r="S32">
-        <v>0.0002891220885165021</v>
+        <v>0.0003122380450920531</v>
       </c>
       <c r="T32">
-        <v>0.0002257093894489762</v>
+        <v>0.0002640492492671453</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.503595333333333</v>
+        <v>1.572250666666666</v>
       </c>
       <c r="H33">
-        <v>19.510786</v>
+        <v>4.716752</v>
       </c>
       <c r="I33">
-        <v>0.07272865194393879</v>
+        <v>0.01690640673652467</v>
       </c>
       <c r="J33">
-        <v>0.08337812786310975</v>
+        <v>0.02091816057586161</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P33">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q33">
-        <v>908.5185577641887</v>
+        <v>219.6352686340444</v>
       </c>
       <c r="R33">
-        <v>8176.667019877699</v>
+        <v>1976.7174177064</v>
       </c>
       <c r="S33">
-        <v>0.0200039311385657</v>
+        <v>0.004025143464757392</v>
       </c>
       <c r="T33">
-        <v>0.02342474994058084</v>
+        <v>0.005105893372547233</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.503595333333333</v>
+        <v>1.572250666666666</v>
       </c>
       <c r="H34">
-        <v>19.510786</v>
+        <v>4.716752</v>
       </c>
       <c r="I34">
-        <v>0.07272865194393879</v>
+        <v>0.01690640673652467</v>
       </c>
       <c r="J34">
-        <v>0.08337812786310975</v>
+        <v>0.02091816057586161</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N34">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O34">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P34">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q34">
-        <v>1211.97655665055</v>
+        <v>236.0276536605866</v>
       </c>
       <c r="R34">
-        <v>10907.78900985495</v>
+        <v>2124.24888294528</v>
       </c>
       <c r="S34">
-        <v>0.02668552598469465</v>
+        <v>0.004325558338341798</v>
       </c>
       <c r="T34">
-        <v>0.03124894646428807</v>
+        <v>0.005486969556658272</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.503595333333333</v>
+        <v>1.572250666666666</v>
       </c>
       <c r="H35">
-        <v>19.510786</v>
+        <v>4.716752</v>
       </c>
       <c r="I35">
-        <v>0.07272865194393879</v>
+        <v>0.01690640673652467</v>
       </c>
       <c r="J35">
-        <v>0.08337812786310975</v>
+        <v>0.02091816057586161</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N35">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O35">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P35">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q35">
-        <v>194.8693373893523</v>
+        <v>51.04975750789866</v>
       </c>
       <c r="R35">
-        <v>1169.216024336114</v>
+        <v>306.298545047392</v>
       </c>
       <c r="S35">
-        <v>0.004290669434147452</v>
+        <v>0.0009355628496657447</v>
       </c>
       <c r="T35">
-        <v>0.003349603564632282</v>
+        <v>0.0007911741441490287</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.503595333333333</v>
+        <v>1.572250666666666</v>
       </c>
       <c r="H36">
-        <v>19.510786</v>
+        <v>4.716752</v>
       </c>
       <c r="I36">
-        <v>0.07272865194393879</v>
+        <v>0.01690640673652467</v>
       </c>
       <c r="J36">
-        <v>0.08337812786310975</v>
+        <v>0.02091816057586161</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N36">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O36">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P36">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q36">
-        <v>40.67163385786178</v>
+        <v>81.89891509091021</v>
       </c>
       <c r="R36">
-        <v>366.044704720756</v>
+        <v>737.0902358181919</v>
       </c>
       <c r="S36">
-        <v>0.0008955156237951024</v>
+        <v>0.001500919615046742</v>
       </c>
       <c r="T36">
-        <v>0.001048655357288319</v>
+        <v>0.001903916116852052</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.503595333333333</v>
+        <v>1.572250666666666</v>
       </c>
       <c r="H37">
-        <v>19.510786</v>
+        <v>4.716752</v>
       </c>
       <c r="I37">
-        <v>0.07272865194393879</v>
+        <v>0.01690640673652467</v>
       </c>
       <c r="J37">
-        <v>0.08337812786310975</v>
+        <v>0.02091816057586161</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N37">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O37">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P37">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q37">
-        <v>933.9501042266697</v>
+        <v>316.8628882430577</v>
       </c>
       <c r="R37">
-        <v>8405.550938040029</v>
+        <v>2851.765994187519</v>
       </c>
       <c r="S37">
-        <v>0.02056388767421937</v>
+        <v>0.005806984423620936</v>
       </c>
       <c r="T37">
-        <v>0.02408046314687124</v>
+        <v>0.007366158136387876</v>
       </c>
     </row>
   </sheetData>
